--- a/JAN_2026.xlsx
+++ b/JAN_2026.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b162f4d0d999aeb4/Documentos/CONTAS/Exportações Mobills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b162f4d0d999aeb4/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{51E2C1CC-D29B-4528-9B4F-F65F95AA6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92256FC9-A3F3-4D74-909A-07BFB0DCA293}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{51E2C1CC-D29B-4528-9B4F-F65F95AA6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6410E31-81DA-48DA-B5B2-D0EAB873500B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Despesas" sheetId="2" r:id="rId1"/>
+    <sheet name="Receitas e despesas" sheetId="3" r:id="rId1"/>
+    <sheet name="Despesas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -756,10 +757,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC833B6-BB8C-40EE-BF46-B70FDFE08102}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
